--- a/biology/Zoologie/Eresidae/Eresidae.xlsx
+++ b/biology/Zoologie/Eresidae/Eresidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Eresidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Eresidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Eurasie, en Afrique au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Eurasie, en Afrique au Brésil.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des araignées entélégynes et cribellates. Elles sont de couleur sombre et très velues. La partie céphalique est massive, presque carrée. La disposition oculaire est remarquable : les deux yeux latéraux antérieurs et les deux yeux latéraux postérieurs sont placés de sorte à former dans l'ensemble un trapèze. Elles habitent un tube de soie enfoncé dans le sol et terminé par un auvent.
 </t>
@@ -573,9 +589,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille n'est pas connue à l'état fossile[2]. Cependant une toile fossile a été attribuée au genre Seothyra.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille n'est pas connue à l'état fossile. Cependant une toile fossile a été attribuée au genre Seothyra.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille rassemble 96 espèces dans neuf genres[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille rassemble 96 espèces dans neuf genres.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 15.5, 16/11/2014)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 15.5, 16/11/2014) :
 Adonea Simon, 1873
 Dorceus C. L. Koch, 1846
 Dresserus Simon, 1876
@@ -674,7 +696,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Berendt, 1845 : Die organischen Bernstein-Einschlusse im Allgemein. Die im Bernstein befindlichen organischen Reste der Vorwelt gesammelt in Verbindung mit Mehreren bearbeitet und herausgegeben von Berlin, Nicholaischen Buchhandlung, vol. 1, no 1, p. 41-60.</t>
         </is>
